--- a/test.xlsx
+++ b/test.xlsx
@@ -2700,6 +2700,7 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font/>
     <font/>
   </fonts>
   <fills count="6">
@@ -2821,7 +2822,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2861,6 +2862,28 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="1" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="1" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3604,7 +3627,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="37.50" customHeight="1">
-      <c r="A1" s="15">
+      <c r="A1" s="25">
         <v>10</v>
       </c>
       <c r="B1" s="2" t="s">

--- a/test.xlsx
+++ b/test.xlsx
@@ -47,7 +47,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1631" uniqueCount="869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="870">
+  <si>
+    <t xml:space="preserve">HHHHH</t>
+  </si>
   <si>
     <t xml:space="preserve">1</t>
   </si>
@@ -2700,6 +2703,7 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font/>
     <font/>
     <font/>
   </fonts>
@@ -2822,7 +2826,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2885,6 +2889,28 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="1" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3627,23 +3653,23 @@
   </cols>
   <sheetData>
     <row r="1" ht="37.50" customHeight="1">
-      <c r="A1" s="25">
-        <v>10</v>
+      <c r="A1" s="35" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
@@ -3651,22 +3677,22 @@
     </row>
     <row r="2" ht="37.50" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -3674,22 +3700,22 @@
     </row>
     <row r="3" ht="37.50" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -3697,22 +3723,22 @@
     </row>
     <row r="4" ht="37.50" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -3720,22 +3746,22 @@
     </row>
     <row r="5" ht="37.50" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -3743,22 +3769,22 @@
     </row>
     <row r="6" ht="37.50" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -3766,22 +3792,22 @@
     </row>
     <row r="7" ht="37.50" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -3789,22 +3815,22 @@
     </row>
     <row r="8" ht="37.50" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -3812,22 +3838,22 @@
     </row>
     <row r="9" ht="37.50" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -3835,22 +3861,22 @@
     </row>
     <row r="10" ht="37.50" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -3858,22 +3884,22 @@
     </row>
     <row r="11" ht="37.50" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -3881,22 +3907,22 @@
     </row>
     <row r="12" ht="37.50" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -3904,22 +3930,22 @@
     </row>
     <row r="13" ht="37.50" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -3927,22 +3953,22 @@
     </row>
     <row r="14" ht="37.50" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -3950,22 +3976,22 @@
     </row>
     <row r="15" ht="37.50" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
@@ -3973,22 +3999,22 @@
     </row>
     <row r="16" ht="37.50" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -3996,22 +4022,22 @@
     </row>
     <row r="17" ht="37.50" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -4019,22 +4045,22 @@
     </row>
     <row r="18" ht="37.50" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -4042,22 +4068,22 @@
     </row>
     <row r="19" ht="37.50" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -4065,22 +4091,22 @@
     </row>
     <row r="20" ht="37.50" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -4088,22 +4114,22 @@
     </row>
     <row r="21" ht="37.50" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
@@ -4111,22 +4137,22 @@
     </row>
     <row r="22" ht="37.50" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -4134,22 +4160,22 @@
     </row>
     <row r="23" ht="37.50" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -4157,22 +4183,22 @@
     </row>
     <row r="24" ht="37.50" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -4180,22 +4206,22 @@
     </row>
     <row r="25" ht="37.50" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -4203,22 +4229,22 @@
     </row>
     <row r="26" ht="37.50" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -4226,22 +4252,22 @@
     </row>
     <row r="27" ht="37.50" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -4249,22 +4275,22 @@
     </row>
     <row r="28" ht="37.50" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
@@ -4272,22 +4298,22 @@
     </row>
     <row r="29" ht="37.50" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
@@ -4295,22 +4321,22 @@
     </row>
     <row r="30" ht="37.50" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
@@ -4318,22 +4344,22 @@
     </row>
     <row r="31" ht="37.50" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -4341,22 +4367,22 @@
     </row>
     <row r="32" ht="37.50" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
@@ -4364,22 +4390,22 @@
     </row>
     <row r="33" ht="37.50" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
@@ -4387,22 +4413,22 @@
     </row>
     <row r="34" ht="37.50" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>180</v>
-      </c>
       <c r="E34" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
@@ -4410,22 +4436,22 @@
     </row>
     <row r="35" ht="37.50" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
@@ -4433,22 +4459,22 @@
     </row>
     <row r="36" ht="37.50" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D36" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>72</v>
-      </c>
       <c r="F36" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
@@ -4456,22 +4482,22 @@
     </row>
     <row r="37" ht="37.50" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
@@ -4479,22 +4505,22 @@
     </row>
     <row r="38" ht="37.50" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
@@ -4502,22 +4528,22 @@
     </row>
     <row r="39" ht="37.50" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
@@ -4525,22 +4551,22 @@
     </row>
     <row r="40" ht="37.50" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
@@ -4548,22 +4574,22 @@
     </row>
     <row r="41" ht="37.50" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
@@ -4571,22 +4597,22 @@
     </row>
     <row r="42" ht="37.50" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
@@ -4594,22 +4620,22 @@
     </row>
     <row r="43" ht="37.50" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
@@ -4617,22 +4643,22 @@
     </row>
     <row r="44" ht="37.50" customHeight="1">
       <c r="A44" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C44" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D44" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="E44" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
@@ -4640,22 +4666,22 @@
     </row>
     <row r="45" ht="37.50" customHeight="1">
       <c r="A45" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
@@ -4663,22 +4689,22 @@
     </row>
     <row r="46" ht="37.50" customHeight="1">
       <c r="A46" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
@@ -4686,22 +4712,22 @@
     </row>
     <row r="47" ht="37.50" customHeight="1">
       <c r="A47" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
@@ -4709,22 +4735,22 @@
     </row>
     <row r="48" ht="37.50" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
@@ -4732,22 +4758,22 @@
     </row>
     <row r="49" ht="37.50" customHeight="1">
       <c r="A49" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
@@ -4755,22 +4781,22 @@
     </row>
     <row r="50" ht="37.50" customHeight="1">
       <c r="A50" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
@@ -4778,22 +4804,22 @@
     </row>
     <row r="51" ht="37.50" customHeight="1">
       <c r="A51" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
@@ -4801,22 +4827,22 @@
     </row>
     <row r="52" ht="37.50" customHeight="1">
       <c r="A52" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
@@ -4824,22 +4850,22 @@
     </row>
     <row r="53" ht="37.50" customHeight="1">
       <c r="A53" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
@@ -4847,22 +4873,22 @@
     </row>
     <row r="54" ht="37.50" customHeight="1">
       <c r="A54" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
@@ -4870,22 +4896,22 @@
     </row>
     <row r="55" ht="37.50" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
@@ -4893,22 +4919,22 @@
     </row>
     <row r="56" ht="37.50" customHeight="1">
       <c r="A56" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
@@ -4916,22 +4942,22 @@
     </row>
     <row r="57" ht="37.50" customHeight="1">
       <c r="A57" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
@@ -4939,22 +4965,22 @@
     </row>
     <row r="58" ht="37.50" customHeight="1">
       <c r="A58" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
@@ -4962,22 +4988,22 @@
     </row>
     <row r="59" ht="37.50" customHeight="1">
       <c r="A59" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
@@ -4985,22 +5011,22 @@
     </row>
     <row r="60" ht="37.50" customHeight="1">
       <c r="A60" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
@@ -5008,22 +5034,22 @@
     </row>
     <row r="61" ht="37.50" customHeight="1">
       <c r="A61" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
@@ -5031,22 +5057,22 @@
     </row>
     <row r="62" ht="37.50" customHeight="1">
       <c r="A62" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
@@ -5054,22 +5080,22 @@
     </row>
     <row r="63" ht="37.50" customHeight="1">
       <c r="A63" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
@@ -5077,22 +5103,22 @@
     </row>
     <row r="64" ht="37.50" customHeight="1">
       <c r="A64" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
@@ -5100,22 +5126,22 @@
     </row>
     <row r="65" ht="37.50" customHeight="1">
       <c r="A65" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
@@ -5123,22 +5149,22 @@
     </row>
     <row r="66" ht="37.50" customHeight="1">
       <c r="A66" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
@@ -5146,22 +5172,22 @@
     </row>
     <row r="67" ht="37.50" customHeight="1">
       <c r="A67" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
@@ -5169,22 +5195,22 @@
     </row>
     <row r="68" ht="37.50" customHeight="1">
       <c r="A68" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
@@ -5192,22 +5218,22 @@
     </row>
     <row r="69" ht="37.50" customHeight="1">
       <c r="A69" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
@@ -5215,22 +5241,22 @@
     </row>
     <row r="70" ht="37.50" customHeight="1">
       <c r="A70" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
@@ -5238,22 +5264,22 @@
     </row>
     <row r="71" ht="37.50" customHeight="1">
       <c r="A71" s="4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
@@ -5261,22 +5287,22 @@
     </row>
     <row r="72" ht="37.50" customHeight="1">
       <c r="A72" s="4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
@@ -5284,22 +5310,22 @@
     </row>
     <row r="73" ht="37.50" customHeight="1">
       <c r="A73" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
@@ -5307,22 +5333,22 @@
     </row>
     <row r="74" ht="37.50" customHeight="1">
       <c r="A74" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
@@ -5330,22 +5356,22 @@
     </row>
     <row r="75" ht="37.50" customHeight="1">
       <c r="A75" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="F75" s="5" t="s">
         <v>333</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>332</v>
       </c>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
@@ -5353,22 +5379,22 @@
     </row>
     <row r="76" ht="37.50" customHeight="1">
       <c r="A76" s="4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
@@ -5376,22 +5402,22 @@
     </row>
     <row r="77" ht="37.50" customHeight="1">
       <c r="A77" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="C77" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="B77" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="C77" s="5" t="s">
+      <c r="D77" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="E77" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="D77" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>333</v>
-      </c>
       <c r="F77" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
@@ -5399,22 +5425,22 @@
     </row>
     <row r="78" ht="37.50" customHeight="1">
       <c r="A78" s="4" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
@@ -5422,22 +5448,22 @@
     </row>
     <row r="79" ht="37.50" customHeight="1">
       <c r="A79" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="F79" s="5" t="s">
         <v>342</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>341</v>
       </c>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
@@ -5445,22 +5471,22 @@
     </row>
     <row r="80" ht="37.50" customHeight="1">
       <c r="A80" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
@@ -5468,22 +5494,22 @@
     </row>
     <row r="81" ht="37.50" customHeight="1">
       <c r="A81" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
@@ -5491,22 +5517,22 @@
     </row>
     <row r="82" ht="37.50" customHeight="1">
       <c r="A82" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B82" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E82" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="C82" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>358</v>
-      </c>
       <c r="F82" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
@@ -5514,22 +5540,22 @@
     </row>
     <row r="83" ht="37.50" customHeight="1">
       <c r="A83" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
@@ -5537,22 +5563,22 @@
     </row>
     <row r="84" ht="37.50" customHeight="1">
       <c r="A84" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
@@ -5560,22 +5586,22 @@
     </row>
     <row r="85" ht="37.50" customHeight="1">
       <c r="A85" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
@@ -5583,22 +5609,22 @@
     </row>
     <row r="86" ht="37.50" customHeight="1">
       <c r="A86" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
@@ -5606,22 +5632,22 @@
     </row>
     <row r="87" ht="37.50" customHeight="1">
       <c r="A87" s="4" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
@@ -5629,22 +5655,22 @@
     </row>
     <row r="88" ht="37.50" customHeight="1">
       <c r="A88" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
@@ -5652,22 +5678,22 @@
     </row>
     <row r="89" ht="37.50" customHeight="1">
       <c r="A89" s="4" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
@@ -5675,22 +5701,22 @@
     </row>
     <row r="90" ht="37.50" customHeight="1">
       <c r="A90" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
@@ -5698,22 +5724,22 @@
     </row>
     <row r="91" ht="37.50" customHeight="1">
       <c r="A91" s="4" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
@@ -5721,22 +5747,22 @@
     </row>
     <row r="92" ht="37.50" customHeight="1">
       <c r="A92" s="4" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
@@ -5744,22 +5770,22 @@
     </row>
     <row r="93" ht="37.50" customHeight="1">
       <c r="A93" s="4" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
@@ -5767,22 +5793,22 @@
     </row>
     <row r="94" ht="37.50" customHeight="1">
       <c r="A94" s="4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
@@ -5790,22 +5816,22 @@
     </row>
     <row r="95" ht="37.50" customHeight="1">
       <c r="A95" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
@@ -5813,22 +5839,22 @@
     </row>
     <row r="96" ht="37.50" customHeight="1">
       <c r="A96" s="4" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G96" s="6"/>
       <c r="H96" s="6"/>
@@ -5836,22 +5862,22 @@
     </row>
     <row r="97" ht="37.50" customHeight="1">
       <c r="A97" s="4" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G97" s="6"/>
       <c r="H97" s="6"/>
@@ -5859,22 +5885,22 @@
     </row>
     <row r="98" ht="37.50" customHeight="1">
       <c r="A98" s="4" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
@@ -5882,22 +5908,22 @@
     </row>
     <row r="99" ht="37.50" customHeight="1">
       <c r="A99" s="4" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B99" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="C99" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="C99" s="5" t="s">
-        <v>422</v>
-      </c>
       <c r="D99" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
@@ -5905,22 +5931,22 @@
     </row>
     <row r="100" ht="37.50" customHeight="1">
       <c r="A100" s="4" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B100" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="E100" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="C100" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>422</v>
-      </c>
       <c r="F100" s="5" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
@@ -5928,22 +5954,22 @@
     </row>
     <row r="101" ht="37.50" customHeight="1">
       <c r="A101" s="4" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G101" s="6"/>
       <c r="H101" s="6"/>
@@ -5951,22 +5977,22 @@
     </row>
     <row r="102" ht="37.50" customHeight="1">
       <c r="A102" s="4" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G102" s="6"/>
       <c r="H102" s="6"/>
@@ -5974,22 +6000,22 @@
     </row>
     <row r="103" ht="37.50" customHeight="1">
       <c r="A103" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B103" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="B103" s="5" t="s">
-        <v>438</v>
-      </c>
       <c r="C103" s="5" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G103" s="6"/>
       <c r="H103" s="6"/>
@@ -5997,22 +6023,22 @@
     </row>
     <row r="104" ht="37.50" customHeight="1">
       <c r="A104" s="4" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
@@ -6020,22 +6046,22 @@
     </row>
     <row r="105" ht="37.50" customHeight="1">
       <c r="A105" s="4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G105" s="6"/>
       <c r="H105" s="6"/>
@@ -6043,22 +6069,22 @@
     </row>
     <row r="106" ht="37.50" customHeight="1">
       <c r="A106" s="4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G106" s="6"/>
       <c r="H106" s="6"/>
@@ -6066,22 +6092,22 @@
     </row>
     <row r="107" ht="37.50" customHeight="1">
       <c r="A107" s="4" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G107" s="6"/>
       <c r="H107" s="6"/>
@@ -6089,22 +6115,22 @@
     </row>
     <row r="108" ht="37.50" customHeight="1">
       <c r="A108" s="4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G108" s="6"/>
       <c r="H108" s="6"/>
@@ -6112,22 +6138,22 @@
     </row>
     <row r="109" ht="37.50" customHeight="1">
       <c r="A109" s="4" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G109" s="6"/>
       <c r="H109" s="6"/>
@@ -6135,22 +6161,22 @@
     </row>
     <row r="110" ht="37.50" customHeight="1">
       <c r="A110" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B110" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C110" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C110" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="D110" s="5" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G110" s="6"/>
       <c r="H110" s="6"/>
@@ -6158,22 +6184,22 @@
     </row>
     <row r="111" ht="37.50" customHeight="1">
       <c r="A111" s="4" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G111" s="6"/>
       <c r="H111" s="6"/>
@@ -6181,22 +6207,22 @@
     </row>
     <row r="112" ht="37.50" customHeight="1">
       <c r="A112" s="4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="G112" s="6"/>
       <c r="H112" s="6"/>
@@ -6204,22 +6230,22 @@
     </row>
     <row r="113" ht="37.50" customHeight="1">
       <c r="A113" s="4" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G113" s="6"/>
       <c r="H113" s="6"/>
@@ -6227,22 +6253,22 @@
     </row>
     <row r="114" ht="37.50" customHeight="1">
       <c r="A114" s="4" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G114" s="6"/>
       <c r="H114" s="6"/>
@@ -6250,22 +6276,22 @@
     </row>
     <row r="115" ht="37.50" customHeight="1">
       <c r="A115" s="4" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="G115" s="6"/>
       <c r="H115" s="6"/>
@@ -6273,22 +6299,22 @@
     </row>
     <row r="116" ht="37.50" customHeight="1">
       <c r="A116" s="4" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G116" s="6"/>
       <c r="H116" s="6"/>
@@ -6296,22 +6322,22 @@
     </row>
     <row r="117" ht="37.50" customHeight="1">
       <c r="A117" s="4" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="G117" s="6"/>
       <c r="H117" s="6"/>
@@ -6319,22 +6345,22 @@
     </row>
     <row r="118" ht="37.50" customHeight="1">
       <c r="A118" s="4" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="G118" s="6"/>
       <c r="H118" s="6"/>
@@ -6342,22 +6368,22 @@
     </row>
     <row r="119" ht="37.50" customHeight="1">
       <c r="A119" s="4" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="G119" s="6"/>
       <c r="H119" s="6"/>
@@ -6365,22 +6391,22 @@
     </row>
     <row r="120" ht="37.50" customHeight="1">
       <c r="A120" s="4" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G120" s="6"/>
       <c r="H120" s="6"/>
@@ -6388,22 +6414,22 @@
     </row>
     <row r="121" ht="37.50" customHeight="1">
       <c r="A121" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="E121" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="B121" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="E121" s="5" t="s">
-        <v>470</v>
-      </c>
       <c r="F121" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G121" s="6"/>
       <c r="H121" s="6"/>
@@ -6411,22 +6437,22 @@
     </row>
     <row r="122" ht="37.50" customHeight="1">
       <c r="A122" s="4" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G122" s="6"/>
       <c r="H122" s="6"/>
@@ -6434,22 +6460,22 @@
     </row>
     <row r="123" ht="37.50" customHeight="1">
       <c r="A123" s="4" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="G123" s="6"/>
       <c r="H123" s="6"/>
@@ -6457,22 +6483,22 @@
     </row>
     <row r="124" ht="37.50" customHeight="1">
       <c r="A124" s="4" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G124" s="6"/>
       <c r="H124" s="6"/>
@@ -6480,22 +6506,22 @@
     </row>
     <row r="125" ht="37.50" customHeight="1">
       <c r="A125" s="4" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E125" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="F125" s="5" t="s">
         <v>299</v>
-      </c>
-      <c r="F125" s="5" t="s">
-        <v>298</v>
       </c>
       <c r="G125" s="6"/>
       <c r="H125" s="6"/>
@@ -6503,22 +6529,22 @@
     </row>
     <row r="126" ht="37.50" customHeight="1">
       <c r="A126" s="4" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="G126" s="6"/>
       <c r="H126" s="6"/>
@@ -6526,22 +6552,22 @@
     </row>
     <row r="127" ht="37.50" customHeight="1">
       <c r="A127" s="4" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G127" s="6"/>
       <c r="H127" s="6"/>
@@ -6549,22 +6575,22 @@
     </row>
     <row r="128" ht="37.50" customHeight="1">
       <c r="A128" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="D128" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="B128" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="D128" s="5" t="s">
-        <v>520</v>
-      </c>
       <c r="E128" s="5" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G128" s="6"/>
       <c r="H128" s="6"/>
@@ -6572,22 +6598,22 @@
     </row>
     <row r="129" ht="37.50" customHeight="1">
       <c r="A129" s="4" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="G129" s="6"/>
       <c r="H129" s="6"/>
@@ -6595,22 +6621,22 @@
     </row>
     <row r="130" ht="37.50" customHeight="1">
       <c r="A130" s="4" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G130" s="6"/>
       <c r="H130" s="6"/>
@@ -6618,22 +6644,22 @@
     </row>
     <row r="131" ht="37.50" customHeight="1">
       <c r="A131" s="4" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="G131" s="6"/>
       <c r="H131" s="6"/>
@@ -6641,22 +6667,22 @@
     </row>
     <row r="132" ht="37.50" customHeight="1">
       <c r="A132" s="4" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B132" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D132" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="C132" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D132" s="5" t="s">
-        <v>412</v>
-      </c>
       <c r="E132" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="G132" s="6"/>
       <c r="H132" s="6"/>
@@ -6664,22 +6690,22 @@
     </row>
     <row r="133" ht="37.50" customHeight="1">
       <c r="A133" s="4" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="G133" s="6"/>
       <c r="H133" s="6"/>
@@ -6687,22 +6713,22 @@
     </row>
     <row r="134" ht="37.50" customHeight="1">
       <c r="A134" s="4" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="G134" s="6"/>
       <c r="H134" s="6"/>
@@ -6710,22 +6736,22 @@
     </row>
     <row r="135" ht="37.50" customHeight="1">
       <c r="A135" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B135" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="C135" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="C135" s="5" t="s">
-        <v>410</v>
-      </c>
       <c r="D135" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="E135" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="E135" s="5" t="s">
-        <v>412</v>
-      </c>
       <c r="F135" s="5" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G135" s="6"/>
       <c r="H135" s="6"/>
@@ -6733,22 +6759,22 @@
     </row>
     <row r="136" ht="37.50" customHeight="1">
       <c r="A136" s="4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G136" s="6"/>
       <c r="H136" s="6"/>
@@ -6756,22 +6782,22 @@
     </row>
     <row r="137" ht="37.50" customHeight="1">
       <c r="A137" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="D137" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="B137" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="D137" s="5" t="s">
-        <v>412</v>
-      </c>
       <c r="E137" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G137" s="6"/>
       <c r="H137" s="6"/>
@@ -6779,22 +6805,22 @@
     </row>
     <row r="138" ht="37.50" customHeight="1">
       <c r="A138" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G138" s="6"/>
       <c r="H138" s="6"/>
@@ -6802,22 +6828,22 @@
     </row>
     <row r="139" ht="37.50" customHeight="1">
       <c r="A139" s="4" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="G139" s="6"/>
       <c r="H139" s="6"/>
@@ -6825,22 +6851,22 @@
     </row>
     <row r="140" ht="37.50" customHeight="1">
       <c r="A140" s="4" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G140" s="6"/>
       <c r="H140" s="6"/>
@@ -6848,22 +6874,22 @@
     </row>
     <row r="141" ht="37.50" customHeight="1">
       <c r="A141" s="4" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G141" s="6"/>
       <c r="H141" s="6"/>
@@ -6871,22 +6897,22 @@
     </row>
     <row r="142" ht="37.50" customHeight="1">
       <c r="A142" s="4" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="G142" s="6"/>
       <c r="H142" s="6"/>
@@ -6894,22 +6920,22 @@
     </row>
     <row r="143" ht="37.50" customHeight="1">
       <c r="A143" s="4" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B143" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="F143" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="C143" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D143" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="E143" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="F143" s="5" t="s">
-        <v>9</v>
       </c>
       <c r="G143" s="6"/>
       <c r="H143" s="6"/>
@@ -6917,22 +6943,22 @@
     </row>
     <row r="144" ht="37.50" customHeight="1">
       <c r="A144" s="4" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C144" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="F144" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="D144" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="E144" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="F144" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="G144" s="6"/>
       <c r="H144" s="6"/>
@@ -6940,22 +6966,22 @@
     </row>
     <row r="145" ht="37.50" customHeight="1">
       <c r="A145" s="4" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D145" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F145" s="5" t="s">
         <v>206</v>
-      </c>
-      <c r="E145" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F145" s="5" t="s">
-        <v>205</v>
       </c>
       <c r="G145" s="6"/>
       <c r="H145" s="6"/>
@@ -6963,22 +6989,22 @@
     </row>
     <row r="146" ht="37.50" customHeight="1">
       <c r="A146" s="4" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G146" s="6"/>
       <c r="H146" s="6"/>
@@ -6986,22 +7012,22 @@
     </row>
     <row r="147" ht="37.50" customHeight="1">
       <c r="A147" s="4" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="G147" s="6"/>
       <c r="H147" s="6"/>
@@ -7009,22 +7035,22 @@
     </row>
     <row r="148" ht="37.50" customHeight="1">
       <c r="A148" s="4" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G148" s="6"/>
       <c r="H148" s="6"/>
@@ -7032,22 +7058,22 @@
     </row>
     <row r="149" ht="37.50" customHeight="1">
       <c r="A149" s="4" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="G149" s="6"/>
       <c r="H149" s="6"/>
@@ -7055,22 +7081,22 @@
     </row>
     <row r="150" ht="37.50" customHeight="1">
       <c r="A150" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="G150" s="6"/>
       <c r="H150" s="6"/>
@@ -7078,22 +7104,22 @@
     </row>
     <row r="151" ht="37.50" customHeight="1">
       <c r="A151" s="4" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="G151" s="6"/>
       <c r="H151" s="6"/>
@@ -7101,22 +7127,22 @@
     </row>
     <row r="152" ht="37.50" customHeight="1">
       <c r="A152" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G152" s="6"/>
       <c r="H152" s="6"/>
@@ -7124,22 +7150,22 @@
     </row>
     <row r="153" ht="37.50" customHeight="1">
       <c r="A153" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="G153" s="6"/>
       <c r="H153" s="6"/>
@@ -7147,22 +7173,22 @@
     </row>
     <row r="154" ht="37.50" customHeight="1">
       <c r="A154" s="4" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="G154" s="6"/>
       <c r="H154" s="6"/>
@@ -7170,22 +7196,22 @@
     </row>
     <row r="155" ht="37.50" customHeight="1">
       <c r="A155" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="E155" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="B155" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="C155" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="D155" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="E155" s="5" t="s">
-        <v>357</v>
-      </c>
       <c r="F155" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G155" s="6"/>
       <c r="H155" s="6"/>
@@ -7193,22 +7219,22 @@
     </row>
     <row r="156" ht="37.50" customHeight="1">
       <c r="A156" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G156" s="6"/>
       <c r="H156" s="6"/>
@@ -7216,22 +7242,22 @@
     </row>
     <row r="157" ht="37.50" customHeight="1">
       <c r="A157" s="4" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G157" s="6"/>
       <c r="H157" s="6"/>
@@ -7239,22 +7265,22 @@
     </row>
     <row r="158" ht="37.50" customHeight="1">
       <c r="A158" s="4" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G158" s="6"/>
       <c r="H158" s="6"/>
@@ -7262,22 +7288,22 @@
     </row>
     <row r="159" ht="37.50" customHeight="1">
       <c r="A159" s="4" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="G159" s="6"/>
       <c r="H159" s="6"/>
@@ -7285,22 +7311,22 @@
     </row>
     <row r="160" ht="37.50" customHeight="1">
       <c r="A160" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G160" s="6"/>
       <c r="H160" s="6"/>
@@ -7308,22 +7334,22 @@
     </row>
     <row r="161" ht="37.50" customHeight="1">
       <c r="A161" s="4" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="G161" s="6"/>
       <c r="H161" s="6"/>
@@ -7331,22 +7357,22 @@
     </row>
     <row r="162" ht="37.50" customHeight="1">
       <c r="A162" s="4" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G162" s="6"/>
       <c r="H162" s="6"/>
@@ -7354,22 +7380,22 @@
     </row>
     <row r="163" ht="37.50" customHeight="1">
       <c r="A163" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="D163" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="B163" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C163" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="D163" s="5" t="s">
-        <v>186</v>
-      </c>
       <c r="E163" s="5" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="G163" s="6"/>
       <c r="H163" s="6"/>
@@ -7377,22 +7403,22 @@
     </row>
     <row r="164" ht="37.50" customHeight="1">
       <c r="A164" s="4" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="G164" s="6"/>
       <c r="H164" s="6"/>
@@ -7400,22 +7426,22 @@
     </row>
     <row r="165" ht="37.50" customHeight="1">
       <c r="A165" s="4" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="G165" s="6"/>
       <c r="H165" s="6"/>
@@ -7423,22 +7449,22 @@
     </row>
     <row r="166" ht="37.50" customHeight="1">
       <c r="A166" s="4" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G166" s="6"/>
       <c r="H166" s="6"/>
@@ -7446,22 +7472,22 @@
     </row>
     <row r="167" ht="37.50" customHeight="1">
       <c r="A167" s="4" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B167" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="D167" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="C167" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="D167" s="5" t="s">
+      <c r="E167" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="F167" s="5" t="s">
         <v>253</v>
-      </c>
-      <c r="E167" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="F167" s="5" t="s">
-        <v>252</v>
       </c>
       <c r="G167" s="6"/>
       <c r="H167" s="6"/>
@@ -7469,22 +7495,22 @@
     </row>
     <row r="168" ht="37.50" customHeight="1">
       <c r="A168" s="4" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="G168" s="6"/>
       <c r="H168" s="6"/>
@@ -7492,22 +7518,22 @@
     </row>
     <row r="169" ht="37.50" customHeight="1">
       <c r="A169" s="4" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G169" s="6"/>
       <c r="H169" s="6"/>
@@ -7515,22 +7541,22 @@
     </row>
     <row r="170" ht="37.50" customHeight="1">
       <c r="A170" s="4" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F170" s="5" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="G170" s="6"/>
       <c r="H170" s="6"/>
@@ -7538,22 +7564,22 @@
     </row>
     <row r="171" ht="37.50" customHeight="1">
       <c r="A171" s="4" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G171" s="6"/>
       <c r="H171" s="6"/>
@@ -7561,22 +7587,22 @@
     </row>
     <row r="172" ht="37.50" customHeight="1">
       <c r="A172" s="4" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G172" s="6"/>
       <c r="H172" s="6"/>
@@ -7584,22 +7610,22 @@
     </row>
     <row r="173" ht="37.50" customHeight="1">
       <c r="A173" s="4" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="F173" s="5" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G173" s="6"/>
       <c r="H173" s="6"/>
@@ -7607,22 +7633,22 @@
     </row>
     <row r="174" ht="37.50" customHeight="1">
       <c r="A174" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G174" s="6"/>
       <c r="H174" s="6"/>
@@ -7630,22 +7656,22 @@
     </row>
     <row r="175" ht="37.50" customHeight="1">
       <c r="A175" s="4" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G175" s="6"/>
       <c r="H175" s="6"/>
@@ -7653,22 +7679,22 @@
     </row>
     <row r="176" ht="37.50" customHeight="1">
       <c r="A176" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="B176" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="B176" s="5" t="s">
-        <v>572</v>
-      </c>
       <c r="C176" s="5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="G176" s="6"/>
       <c r="H176" s="6"/>
@@ -7676,22 +7702,22 @@
     </row>
     <row r="177" ht="37.50" customHeight="1">
       <c r="A177" s="4" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D177" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="E177" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="F177" s="5" t="s">
         <v>575</v>
-      </c>
-      <c r="E177" s="5" t="s">
-        <v>630</v>
-      </c>
-      <c r="F177" s="5" t="s">
-        <v>574</v>
       </c>
       <c r="G177" s="6"/>
       <c r="H177" s="6"/>
@@ -7699,22 +7725,22 @@
     </row>
     <row r="178" ht="37.50" customHeight="1">
       <c r="A178" s="4" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="F178" s="5" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="G178" s="6"/>
       <c r="H178" s="6"/>
@@ -7722,22 +7748,22 @@
     </row>
     <row r="179" ht="37.50" customHeight="1">
       <c r="A179" s="4" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="G179" s="6"/>
       <c r="H179" s="6"/>
@@ -7745,22 +7771,22 @@
     </row>
     <row r="180" ht="37.50" customHeight="1">
       <c r="A180" s="4" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="G180" s="6"/>
       <c r="H180" s="6"/>
@@ -7768,22 +7794,22 @@
     </row>
     <row r="181" ht="37.50" customHeight="1">
       <c r="A181" s="4" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G181" s="6"/>
       <c r="H181" s="6"/>
@@ -7791,22 +7817,22 @@
     </row>
     <row r="182" ht="37.50" customHeight="1">
       <c r="A182" s="4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C182" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D182" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D182" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="E182" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F182" s="5" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G182" s="6"/>
       <c r="H182" s="6"/>
@@ -7814,22 +7840,22 @@
     </row>
     <row r="183" ht="37.50" customHeight="1">
       <c r="A183" s="4" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="G183" s="6"/>
       <c r="H183" s="6"/>
@@ -7837,22 +7863,22 @@
     </row>
     <row r="184" ht="37.50" customHeight="1">
       <c r="A184" s="4" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="F184" s="5" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="G184" s="6"/>
       <c r="H184" s="6"/>
@@ -7860,22 +7886,22 @@
     </row>
     <row r="185" ht="37.50" customHeight="1">
       <c r="A185" s="4" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="F185" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G185" s="6"/>
       <c r="H185" s="6"/>
@@ -7883,22 +7909,22 @@
     </row>
     <row r="186" ht="37.50" customHeight="1">
       <c r="A186" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="D186" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="E186" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="F186" s="5" t="s">
         <v>660</v>
-      </c>
-      <c r="B186" s="5" t="s">
-        <v>661</v>
-      </c>
-      <c r="C186" s="5" t="s">
-        <v>662</v>
-      </c>
-      <c r="D186" s="5" t="s">
-        <v>663</v>
-      </c>
-      <c r="E186" s="5" t="s">
-        <v>658</v>
-      </c>
-      <c r="F186" s="5" t="s">
-        <v>659</v>
       </c>
       <c r="G186" s="6"/>
       <c r="H186" s="6"/>
@@ -7906,22 +7932,22 @@
     </row>
     <row r="187" ht="37.50" customHeight="1">
       <c r="A187" s="4" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="F187" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G187" s="6"/>
       <c r="H187" s="6"/>
@@ -7929,22 +7955,22 @@
     </row>
     <row r="188" ht="37.50" customHeight="1">
       <c r="A188" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D188" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="E188" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="B188" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C188" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="D188" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="E188" s="5" t="s">
-        <v>307</v>
-      </c>
       <c r="F188" s="5" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G188" s="6"/>
       <c r="H188" s="6"/>
@@ -7952,22 +7978,22 @@
     </row>
     <row r="189" ht="37.50" customHeight="1">
       <c r="A189" s="4" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="E189" s="5" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="F189" s="5" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="G189" s="6"/>
       <c r="H189" s="6"/>
@@ -7975,22 +8001,22 @@
     </row>
     <row r="190" ht="37.50" customHeight="1">
       <c r="A190" s="4" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="F190" s="5" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="G190" s="6"/>
       <c r="H190" s="6"/>
@@ -7998,22 +8024,22 @@
     </row>
     <row r="191" ht="37.50" customHeight="1">
       <c r="A191" s="4" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B191" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="D191" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="C191" s="5" t="s">
-        <v>621</v>
-      </c>
-      <c r="D191" s="5" t="s">
-        <v>319</v>
-      </c>
       <c r="E191" s="5" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="F191" s="5" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="G191" s="6"/>
       <c r="H191" s="6"/>
@@ -8021,22 +8047,22 @@
     </row>
     <row r="192" ht="37.50" customHeight="1">
       <c r="A192" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C192" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B192" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="C192" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="D192" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E192" s="5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F192" s="5" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="G192" s="6"/>
       <c r="H192" s="6"/>
@@ -8044,22 +8070,22 @@
     </row>
     <row r="193" ht="37.50" customHeight="1">
       <c r="A193" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E193" s="5" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F193" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G193" s="6"/>
       <c r="H193" s="6"/>
@@ -8067,22 +8093,22 @@
     </row>
     <row r="194" ht="37.50" customHeight="1">
       <c r="A194" s="4" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F194" s="5" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="G194" s="6"/>
       <c r="H194" s="6"/>
@@ -8090,22 +8116,22 @@
     </row>
     <row r="195" ht="37.50" customHeight="1">
       <c r="A195" s="4" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F195" s="5" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="G195" s="6"/>
       <c r="H195" s="6"/>
@@ -8113,22 +8139,22 @@
     </row>
     <row r="196" ht="37.50" customHeight="1">
       <c r="A196" s="4" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F196" s="5" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G196" s="6"/>
       <c r="H196" s="6"/>
@@ -8136,22 +8162,22 @@
     </row>
     <row r="197" ht="37.50" customHeight="1">
       <c r="A197" s="4" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E197" s="5" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="F197" s="5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G197" s="6"/>
       <c r="H197" s="6"/>
@@ -8159,22 +8185,22 @@
     </row>
     <row r="198" ht="37.50" customHeight="1">
       <c r="A198" s="4" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B198" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C198" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C198" s="5" t="s">
-        <v>185</v>
-      </c>
       <c r="D198" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E198" s="5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F198" s="5" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="G198" s="6"/>
       <c r="H198" s="6"/>
@@ -8182,22 +8208,22 @@
     </row>
     <row r="199" ht="37.50" customHeight="1">
       <c r="A199" s="4" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D199" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E199" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="E199" s="5" t="s">
-        <v>247</v>
-      </c>
       <c r="F199" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G199" s="6"/>
       <c r="H199" s="6"/>
@@ -8205,22 +8231,22 @@
     </row>
     <row r="200" ht="37.50" customHeight="1">
       <c r="A200" s="4" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C200" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="D200" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="E200" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="F200" s="5" t="s">
         <v>453</v>
-      </c>
-      <c r="D200" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="E200" s="5" t="s">
-        <v>691</v>
-      </c>
-      <c r="F200" s="5" t="s">
-        <v>452</v>
       </c>
       <c r="G200" s="6"/>
       <c r="H200" s="6"/>
@@ -8228,22 +8254,22 @@
     </row>
     <row r="201" ht="37.50" customHeight="1">
       <c r="A201" s="4" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="E201" s="5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F201" s="5" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G201" s="6"/>
       <c r="H201" s="6"/>
@@ -8251,22 +8277,22 @@
     </row>
     <row r="202" ht="37.50" customHeight="1">
       <c r="A202" s="4" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F202" s="5" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="G202" s="6"/>
       <c r="H202" s="6"/>
@@ -8274,22 +8300,22 @@
     </row>
     <row r="203" ht="37.50" customHeight="1">
       <c r="A203" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="F203" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G203" s="6"/>
       <c r="H203" s="6"/>
@@ -8297,22 +8323,22 @@
     </row>
     <row r="204" ht="37.50" customHeight="1">
       <c r="A204" s="4" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F204" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G204" s="6"/>
       <c r="H204" s="6"/>
@@ -8320,22 +8346,22 @@
     </row>
     <row r="205" ht="37.50" customHeight="1">
       <c r="A205" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="D205" s="5" t="s">
         <v>700</v>
       </c>
-      <c r="B205" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C205" s="5" t="s">
+      <c r="E205" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F205" s="5" t="s">
         <v>697</v>
-      </c>
-      <c r="D205" s="5" t="s">
-        <v>699</v>
-      </c>
-      <c r="E205" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F205" s="5" t="s">
-        <v>696</v>
       </c>
       <c r="G205" s="6"/>
       <c r="H205" s="6"/>
@@ -8343,22 +8369,22 @@
     </row>
     <row r="206" ht="37.50" customHeight="1">
       <c r="A206" s="4" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="F206" s="5" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="G206" s="6"/>
       <c r="H206" s="6"/>
@@ -8366,22 +8392,22 @@
     </row>
     <row r="207" ht="37.50" customHeight="1">
       <c r="A207" s="4" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="D207" s="5" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="E207" s="5" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F207" s="5" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="G207" s="6"/>
       <c r="H207" s="6"/>
@@ -8389,22 +8415,22 @@
     </row>
     <row r="208" ht="37.50" customHeight="1">
       <c r="A208" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="C208" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="B208" s="5" t="s">
+      <c r="D208" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="E208" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="F208" s="5" t="s">
         <v>342</v>
-      </c>
-      <c r="C208" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="D208" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="E208" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="F208" s="5" t="s">
-        <v>341</v>
       </c>
       <c r="G208" s="6"/>
       <c r="H208" s="6"/>
@@ -8412,22 +8438,22 @@
     </row>
     <row r="209" ht="37.50" customHeight="1">
       <c r="A209" s="4" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C209" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="D209" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="E209" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="F209" s="5" t="s">
         <v>335</v>
-      </c>
-      <c r="D209" s="5" t="s">
-        <v>713</v>
-      </c>
-      <c r="E209" s="5" t="s">
-        <v>606</v>
-      </c>
-      <c r="F209" s="5" t="s">
-        <v>334</v>
       </c>
       <c r="G209" s="6"/>
       <c r="H209" s="6"/>
@@ -8435,22 +8461,22 @@
     </row>
     <row r="210" ht="37.50" customHeight="1">
       <c r="A210" s="4" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D210" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E210" s="5" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F210" s="5" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G210" s="6"/>
       <c r="H210" s="6"/>
@@ -8458,22 +8484,22 @@
     </row>
     <row r="211" ht="37.50" customHeight="1">
       <c r="A211" s="4" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C211" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="D211" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="D211" s="5" t="s">
-        <v>324</v>
-      </c>
       <c r="E211" s="5" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="F211" s="5" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="G211" s="6"/>
       <c r="H211" s="6"/>
@@ -8481,22 +8507,22 @@
     </row>
     <row r="212" ht="37.50" customHeight="1">
       <c r="A212" s="4" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="D212" s="5" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="E212" s="5" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F212" s="5" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G212" s="6"/>
       <c r="H212" s="6"/>
@@ -8504,22 +8530,22 @@
     </row>
     <row r="213" ht="37.50" customHeight="1">
       <c r="A213" s="4" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="E213" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F213" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G213" s="6"/>
       <c r="H213" s="6"/>
@@ -8527,22 +8553,22 @@
     </row>
     <row r="214" ht="37.50" customHeight="1">
       <c r="A214" s="4" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E214" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F214" s="5" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G214" s="6"/>
       <c r="H214" s="6"/>
@@ -8550,22 +8576,22 @@
     </row>
     <row r="215" ht="37.50" customHeight="1">
       <c r="A215" s="10" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="E215" s="5" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="F215" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G215" s="6"/>
       <c r="H215" s="6"/>
@@ -8573,22 +8599,22 @@
     </row>
     <row r="216" ht="37.50" customHeight="1">
       <c r="A216" s="10" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E216" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F216" s="5" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="G216" s="6"/>
       <c r="H216" s="6"/>
@@ -8596,22 +8622,22 @@
     </row>
     <row r="217" ht="37.50" customHeight="1">
       <c r="A217" s="10" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B217" s="11" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C217" s="11" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D217" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="E217" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="E217" s="11" t="s">
-        <v>410</v>
-      </c>
       <c r="F217" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G217" s="6"/>
       <c r="H217" s="6"/>
@@ -8619,22 +8645,22 @@
     </row>
     <row r="218" ht="37.50" customHeight="1">
       <c r="A218" s="10" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B218" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="C218" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="C218" s="11" t="s">
-        <v>418</v>
-      </c>
       <c r="D218" s="11" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="E218" s="11" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="F218" s="11" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="G218" s="6"/>
       <c r="H218" s="6"/>
@@ -8642,22 +8668,22 @@
     </row>
     <row r="219" ht="37.50" customHeight="1">
       <c r="A219" s="10" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B219" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="C219" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="C219" s="11" t="s">
-        <v>319</v>
-      </c>
       <c r="D219" s="11" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E219" s="11" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="F219" s="11" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="G219" s="6"/>
       <c r="H219" s="6"/>
@@ -8665,22 +8691,22 @@
     </row>
     <row r="220" ht="37.50" customHeight="1">
       <c r="A220" s="10" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B220" s="11" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C220" s="11" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D220" s="11" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E220" s="11" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="F220" s="11" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="G220" s="6"/>
       <c r="H220" s="6"/>
@@ -8688,22 +8714,22 @@
     </row>
     <row r="221" ht="37.50" customHeight="1">
       <c r="A221" s="10" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B221" s="11" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C221" s="11" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D221" s="11" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E221" s="11" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F221" s="11" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="G221" s="6"/>
       <c r="H221" s="6"/>
@@ -8711,22 +8737,22 @@
     </row>
     <row r="222" ht="37.50" customHeight="1">
       <c r="A222" s="10" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B222" s="11" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C222" s="11" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D222" s="11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E222" s="11" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F222" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G222" s="6"/>
       <c r="H222" s="6"/>
@@ -8734,22 +8760,22 @@
     </row>
     <row r="223" ht="37.50" customHeight="1">
       <c r="A223" s="10" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B223" s="11" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C223" s="11" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D223" s="11" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E223" s="11" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F223" s="11" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="G223" s="6"/>
       <c r="H223" s="6"/>
@@ -8757,22 +8783,22 @@
     </row>
     <row r="224" ht="37.50" customHeight="1">
       <c r="A224" s="10" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B224" s="11" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C224" s="11" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D224" s="11" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E224" s="11" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="F224" s="11" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G224" s="6"/>
       <c r="H224" s="6"/>
@@ -8780,22 +8806,22 @@
     </row>
     <row r="225" ht="37.50" customHeight="1">
       <c r="A225" s="10" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B225" s="11" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C225" s="11" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="D225" s="11" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="E225" s="11" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="F225" s="11" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="G225" s="6"/>
       <c r="H225" s="6"/>
@@ -8803,22 +8829,22 @@
     </row>
     <row r="226" ht="37.50" customHeight="1">
       <c r="A226" s="10" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B226" s="11" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C226" s="11" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="D226" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="E226" s="11" t="s">
         <v>574</v>
       </c>
-      <c r="E226" s="11" t="s">
-        <v>573</v>
-      </c>
       <c r="F226" s="11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G226" s="6"/>
       <c r="H226" s="6"/>
@@ -8826,22 +8852,22 @@
     </row>
     <row r="227" ht="37.50" customHeight="1">
       <c r="A227" s="10" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B227" s="11" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C227" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D227" s="11" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E227" s="11" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F227" s="11" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G227" s="6"/>
       <c r="H227" s="6"/>
@@ -8849,22 +8875,22 @@
     </row>
     <row r="228" ht="37.50" customHeight="1">
       <c r="A228" s="10" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B228" s="11" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C228" s="11" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D228" s="11" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="E228" s="11" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="F228" s="11" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="G228" s="6"/>
       <c r="H228" s="6"/>
@@ -8872,22 +8898,22 @@
     </row>
     <row r="229" ht="37.50" customHeight="1">
       <c r="A229" s="10" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B229" s="11" t="s">
+        <v>728</v>
+      </c>
+      <c r="C229" s="11" t="s">
         <v>727</v>
       </c>
-      <c r="C229" s="11" t="s">
-        <v>726</v>
-      </c>
       <c r="D229" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E229" s="11" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F229" s="11" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="G229" s="6"/>
       <c r="H229" s="6"/>
@@ -8895,22 +8921,22 @@
     </row>
     <row r="230" ht="37.50" customHeight="1">
       <c r="A230" s="10" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B230" s="11" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C230" s="11" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="D230" s="11" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="E230" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F230" s="11" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G230" s="6"/>
       <c r="H230" s="6"/>
@@ -8918,22 +8944,22 @@
     </row>
     <row r="231" ht="37.50" customHeight="1">
       <c r="A231" s="10" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B231" s="11" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C231" s="11" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D231" s="11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E231" s="11" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="F231" s="11" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="G231" s="6"/>
       <c r="H231" s="6"/>
@@ -8941,22 +8967,22 @@
     </row>
     <row r="232" ht="37.50" customHeight="1">
       <c r="A232" s="10" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B232" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C232" s="11" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D232" s="11" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E232" s="11" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="F232" s="11" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="G232" s="6"/>
       <c r="H232" s="6"/>
@@ -8964,22 +8990,22 @@
     </row>
     <row r="233" ht="37.50" customHeight="1">
       <c r="A233" s="10" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B233" s="11" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C233" s="11" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D233" s="11" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="E233" s="11" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="F233" s="11" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="G233" s="6"/>
       <c r="H233" s="6"/>
@@ -8987,22 +9013,22 @@
     </row>
     <row r="234" ht="37.50" customHeight="1">
       <c r="A234" s="10" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B234" s="11" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C234" s="11" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="D234" s="11" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E234" s="11" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="F234" s="11" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="G234" s="6"/>
       <c r="H234" s="6"/>
@@ -9010,22 +9036,22 @@
     </row>
     <row r="235" ht="37.50" customHeight="1">
       <c r="A235" s="10" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B235" s="11" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C235" s="11" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D235" s="11" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="E235" s="11" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="F235" s="11" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="G235" s="6"/>
       <c r="H235" s="6"/>
@@ -9033,22 +9059,22 @@
     </row>
     <row r="236" ht="37.50" customHeight="1">
       <c r="A236" s="10" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B236" s="11" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C236" s="11" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D236" s="11" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E236" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F236" s="11" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="G236" s="6"/>
       <c r="H236" s="6"/>
@@ -9056,22 +9082,22 @@
     </row>
     <row r="237" ht="37.50" customHeight="1">
       <c r="A237" s="10" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B237" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C237" s="11" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D237" s="11" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E237" s="11" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="F237" s="11" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="G237" s="6"/>
       <c r="H237" s="6"/>
@@ -9079,22 +9105,22 @@
     </row>
     <row r="238" ht="37.50" customHeight="1">
       <c r="A238" s="10" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B238" s="11" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C238" s="11" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D238" s="11" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E238" s="11" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F238" s="11" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="G238" s="6"/>
       <c r="H238" s="6"/>
@@ -9102,22 +9128,22 @@
     </row>
     <row r="239" ht="37.50" customHeight="1">
       <c r="A239" s="10" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B239" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="C239" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="D239" s="11" t="s">
         <v>622</v>
       </c>
-      <c r="C239" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="D239" s="11" t="s">
-        <v>621</v>
-      </c>
       <c r="E239" s="11" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F239" s="11" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="G239" s="6"/>
       <c r="H239" s="6"/>
@@ -9125,22 +9151,22 @@
     </row>
     <row r="240" ht="37.50" customHeight="1">
       <c r="A240" s="10" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B240" s="11" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C240" s="11" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D240" s="11" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="E240" s="11" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="F240" s="11" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G240" s="6"/>
       <c r="H240" s="6"/>
@@ -9148,22 +9174,22 @@
     </row>
     <row r="241" ht="37.50" customHeight="1">
       <c r="A241" s="10" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B241" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="C241" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="D241" s="11" t="s">
+        <v>682</v>
+      </c>
+      <c r="E241" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="C241" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="D241" s="11" t="s">
-        <v>681</v>
-      </c>
-      <c r="E241" s="11" t="s">
-        <v>419</v>
-      </c>
       <c r="F241" s="11" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G241" s="6"/>
       <c r="H241" s="6"/>
@@ -9171,22 +9197,22 @@
     </row>
     <row r="242" ht="37.50" customHeight="1">
       <c r="A242" s="10" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B242" s="11" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C242" s="11" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D242" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E242" s="11" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F242" s="11" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G242" s="6"/>
       <c r="H242" s="6"/>
@@ -9194,22 +9220,22 @@
     </row>
     <row r="243" ht="37.50" customHeight="1">
       <c r="A243" s="10" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B243" s="11" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C243" s="11" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D243" s="11" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="E243" s="11" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="F243" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G243" s="6"/>
       <c r="H243" s="6"/>
@@ -9217,22 +9243,22 @@
     </row>
     <row r="244" ht="37.50" customHeight="1">
       <c r="A244" s="10" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B244" s="11" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C244" s="11" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="D244" s="11" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E244" s="11" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F244" s="11" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G244" s="6"/>
       <c r="H244" s="6"/>
@@ -9240,22 +9266,22 @@
     </row>
     <row r="245" ht="37.50" customHeight="1">
       <c r="A245" s="10" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B245" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C245" s="11" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D245" s="11" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E245" s="11" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="F245" s="11" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="G245" s="6"/>
       <c r="H245" s="6"/>
@@ -9263,22 +9289,22 @@
     </row>
     <row r="246" ht="37.50" customHeight="1">
       <c r="A246" s="10" t="s">
+        <v>802</v>
+      </c>
+      <c r="B246" s="11" t="s">
+        <v>678</v>
+      </c>
+      <c r="C246" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D246" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="E246" s="11" t="s">
         <v>801</v>
       </c>
-      <c r="B246" s="11" t="s">
-        <v>677</v>
-      </c>
-      <c r="C246" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="D246" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="E246" s="11" t="s">
-        <v>800</v>
-      </c>
       <c r="F246" s="11" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="G246" s="6"/>
       <c r="H246" s="6"/>
@@ -9286,22 +9312,22 @@
     </row>
     <row r="247" ht="37.50" customHeight="1">
       <c r="A247" s="10" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B247" s="11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C247" s="11" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D247" s="11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E247" s="11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F247" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G247" s="6"/>
       <c r="H247" s="6"/>
@@ -9309,22 +9335,22 @@
     </row>
     <row r="248" ht="37.50" customHeight="1">
       <c r="A248" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B248" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C248" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D248" s="11" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E248" s="11" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="F248" s="11" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="G248" s="6"/>
       <c r="H248" s="6"/>
@@ -9332,22 +9358,22 @@
     </row>
     <row r="249" ht="37.50" customHeight="1">
       <c r="A249" s="10" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B249" s="11" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C249" s="11" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D249" s="11" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="E249" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F249" s="11" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="G249" s="6"/>
       <c r="H249" s="6"/>
@@ -9355,22 +9381,22 @@
     </row>
     <row r="250" ht="37.50" customHeight="1">
       <c r="A250" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B250" s="11" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C250" s="11" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D250" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E250" s="11" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F250" s="11" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G250" s="6"/>
       <c r="H250" s="6"/>
@@ -9378,22 +9404,22 @@
     </row>
     <row r="251" ht="37.50" customHeight="1">
       <c r="A251" s="10" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B251" s="11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C251" s="11" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D251" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E251" s="11" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F251" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G251" s="6"/>
       <c r="H251" s="6"/>
@@ -9401,22 +9427,22 @@
     </row>
     <row r="252" ht="37.50" customHeight="1">
       <c r="A252" s="10" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B252" s="11" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C252" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D252" s="11" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="E252" s="11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F252" s="11" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G252" s="6"/>
       <c r="H252" s="6"/>
@@ -9424,22 +9450,22 @@
     </row>
     <row r="253" ht="37.50" customHeight="1">
       <c r="A253" s="10" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B253" s="11" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C253" s="11" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D253" s="11" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E253" s="11" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F253" s="11" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="G253" s="6"/>
       <c r="H253" s="6"/>
@@ -9447,22 +9473,22 @@
     </row>
     <row r="254" ht="37.50" customHeight="1">
       <c r="A254" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B254" s="11" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C254" s="11" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D254" s="11" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E254" s="11" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="F254" s="11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G254" s="6"/>
       <c r="H254" s="6"/>
@@ -9470,22 +9496,22 @@
     </row>
     <row r="255" ht="37.50" customHeight="1">
       <c r="A255" s="4" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B255" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="C255" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="D255" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="E255" s="11" t="s">
+        <v>817</v>
+      </c>
+      <c r="F255" s="11" t="s">
         <v>358</v>
-      </c>
-      <c r="C255" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="D255" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="E255" s="11" t="s">
-        <v>816</v>
-      </c>
-      <c r="F255" s="11" t="s">
-        <v>357</v>
       </c>
       <c r="G255" s="6"/>
       <c r="H255" s="6"/>
@@ -9493,22 +9519,22 @@
     </row>
     <row r="256" ht="37.50" customHeight="1">
       <c r="A256" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B256" s="11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C256" s="11" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D256" s="11" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E256" s="11" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F256" s="11" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G256" s="6"/>
       <c r="H256" s="6"/>
@@ -9516,22 +9542,22 @@
     </row>
     <row r="257" ht="37.50" customHeight="1">
       <c r="A257" s="4" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B257" s="11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C257" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D257" s="11" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="E257" s="11" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="F257" s="11" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="G257" s="6"/>
       <c r="H257" s="6"/>
@@ -9539,22 +9565,22 @@
     </row>
     <row r="258" ht="37.50" customHeight="1">
       <c r="A258" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B258" s="11" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C258" s="11" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D258" s="11" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E258" s="11" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="F258" s="11" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G258" s="6"/>
       <c r="H258" s="6"/>
@@ -9562,22 +9588,22 @@
     </row>
     <row r="259" ht="37.50" customHeight="1">
       <c r="A259" s="4" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B259" s="11" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C259" s="11" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="D259" s="11" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="E259" s="11" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="F259" s="11" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="G259" s="6"/>
       <c r="H259" s="6"/>
@@ -9585,22 +9611,22 @@
     </row>
     <row r="260" ht="37.50" customHeight="1">
       <c r="A260" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B260" s="11" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C260" s="11" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="D260" s="11" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E260" s="11" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F260" s="11" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="G260" s="6"/>
       <c r="H260" s="6"/>
@@ -9608,22 +9634,22 @@
     </row>
     <row r="261" ht="37.50" customHeight="1">
       <c r="A261" s="4" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B261" s="11" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C261" s="11" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="D261" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E261" s="11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F261" s="11" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G261" s="6"/>
       <c r="H261" s="6"/>
@@ -9631,22 +9657,22 @@
     </row>
     <row r="262" ht="37.50" customHeight="1">
       <c r="A262" s="4" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B262" s="11" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C262" s="11" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="D262" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E262" s="11" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="F262" s="11" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="G262" s="6"/>
       <c r="H262" s="6"/>
@@ -9654,22 +9680,22 @@
     </row>
     <row r="263" ht="37.50" customHeight="1">
       <c r="A263" s="4" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B263" s="11" t="s">
+        <v>682</v>
+      </c>
+      <c r="C263" s="11" t="s">
         <v>681</v>
       </c>
-      <c r="C263" s="11" t="s">
-        <v>680</v>
-      </c>
       <c r="D263" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E263" s="11" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="F263" s="11" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G263" s="6"/>
       <c r="H263" s="6"/>
@@ -9677,22 +9703,22 @@
     </row>
     <row r="264" ht="37.50" customHeight="1">
       <c r="A264" s="4" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B264" s="11" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C264" s="11" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="D264" s="11" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="E264" s="11" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="F264" s="11" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="G264" s="6"/>
       <c r="H264" s="6"/>
@@ -9700,22 +9726,22 @@
     </row>
     <row r="265" ht="37.50" customHeight="1">
       <c r="A265" s="4" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B265" s="11" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C265" s="11" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="D265" s="11" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="E265" s="11" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="F265" s="11" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="G265" s="6"/>
       <c r="H265" s="6"/>
@@ -9723,22 +9749,22 @@
     </row>
     <row r="266" ht="37.50" customHeight="1">
       <c r="A266" s="4" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B266" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C266" s="11" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="D266" s="11" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="E266" s="11" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="F266" s="11" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="G266" s="6"/>
       <c r="H266" s="6"/>
@@ -9746,22 +9772,22 @@
     </row>
     <row r="267" ht="37.50" customHeight="1">
       <c r="A267" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B267" s="11" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C267" s="11" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D267" s="11" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="E267" s="11" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="F267" s="11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G267" s="6"/>
       <c r="H267" s="6"/>
@@ -9769,22 +9795,22 @@
     </row>
     <row r="268" ht="37.50" customHeight="1">
       <c r="A268" s="4" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B268" s="11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C268" s="11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D268" s="11" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="E268" s="11" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="F268" s="11" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="G268" s="6"/>
       <c r="H268" s="6"/>
@@ -9792,22 +9818,22 @@
     </row>
     <row r="269" ht="37.50" customHeight="1">
       <c r="A269" s="4" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B269" s="11" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C269" s="11" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="D269" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E269" s="11" t="s">
+        <v>861</v>
+      </c>
+      <c r="F269" s="11" t="s">
         <v>860</v>
-      </c>
-      <c r="F269" s="11" t="s">
-        <v>859</v>
       </c>
       <c r="G269" s="6"/>
       <c r="H269" s="6"/>
@@ -9815,22 +9841,22 @@
     </row>
     <row r="270" ht="37.50" customHeight="1">
       <c r="A270" s="4" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B270" s="11" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C270" s="11" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="D270" s="11" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E270" s="11" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="F270" s="11" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="G270" s="6"/>
       <c r="H270" s="6"/>
@@ -9838,22 +9864,22 @@
     </row>
     <row r="271" ht="37.50" customHeight="1">
       <c r="A271" s="10" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B271" s="11" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C271" s="11" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="D271" s="11" t="s">
+        <v>847</v>
+      </c>
+      <c r="E271" s="11" t="s">
+        <v>868</v>
+      </c>
+      <c r="F271" s="11" t="s">
         <v>846</v>
-      </c>
-      <c r="E271" s="11" t="s">
-        <v>867</v>
-      </c>
-      <c r="F271" s="11" t="s">
-        <v>845</v>
       </c>
       <c r="G271" s="6"/>
       <c r="H271" s="6"/>
@@ -9861,22 +9887,22 @@
     </row>
     <row r="272" ht="37.50" customHeight="1">
       <c r="A272" s="14" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B272" s="14" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="C272" s="14" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="D272" s="14" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="E272" s="14" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="F272" s="14" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="G272" s="6"/>
       <c r="H272" s="6"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -2703,6 +2703,7 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font/>
     <font/>
     <font/>
     <font/>
@@ -2826,7 +2827,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2889,6 +2890,28 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="1" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3653,7 +3676,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="37.50" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">

--- a/test.xlsx
+++ b/test.xlsx
@@ -18,9 +18,17 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t xml:space="preserve">HHHHH</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,6 +36,7 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -49,8 +58,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -333,10 +343,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -21,14 +21,14 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve">HHHHH</t>
+    <t xml:space="preserve">Hisham</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -36,6 +36,7 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font/>
     <font/>
   </fonts>
   <fills count="2">
@@ -58,9 +59,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -347,7 +349,7 @@
   </sheetViews>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
   <si>
     <t xml:space="preserve">Hisham</t>
   </si>
@@ -36,6 +36,7 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font/>
     <font/>
     <font/>
   </fonts>
@@ -59,9 +60,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -349,7 +352,12 @@
   </sheetViews>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -19,9 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
   <si>
     <t xml:space="preserve">Hisham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ammar</t>
   </si>
 </sst>
 </file>
@@ -36,6 +39,7 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font/>
     <font/>
     <font/>
     <font/>
@@ -60,9 +64,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -357,8 +363,13 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -39,6 +39,7 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font/>
     <font/>
     <font/>
     <font/>
@@ -64,9 +65,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -368,7 +371,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -39,6 +39,7 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font/>
     <font/>
     <font/>
     <font/>
@@ -65,9 +66,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -371,7 +374,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -39,6 +39,7 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font/>
     <font/>
     <font/>
     <font/>
@@ -66,9 +67,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -374,7 +377,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -24,7 +24,7 @@
     <t xml:space="preserve">Hisham</t>
   </si>
   <si>
-    <t xml:space="preserve">Ammar</t>
+    <t xml:space="preserve">GG :: 2024-11-18 16:50:20.353315</t>
   </si>
 </sst>
 </file>
@@ -39,6 +39,7 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font/>
     <font/>
     <font/>
     <font/>
@@ -67,9 +68,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -377,7 +380,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -24,7 +24,7 @@
     <t xml:space="preserve">Hisham</t>
   </si>
   <si>
-    <t xml:space="preserve">GG :: 2024-11-18 16:50:20.353315</t>
+    <t xml:space="preserve">GG :: 2024-11-18 16:51:42.080727</t>
   </si>
 </sst>
 </file>
@@ -39,6 +39,7 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font/>
     <font/>
     <font/>
     <font/>
@@ -68,9 +69,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -380,7 +383,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
     </row>
